--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3558448.530184789</v>
+        <v>3563387.793033822</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>20.95486368043332</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>19.45240097060574</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>92.00803688215818</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>404.3795358314629</v>
       </c>
       <c r="G5" t="n">
-        <v>21.97625921963522</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>6.908481403325515</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,16 +1068,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>73.37668880174252</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>36.74365704764491</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>326.2396125556942</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.52687838733143</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>171.7498680634315</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>44.47495278875694</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>255.3303665522258</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>114.9309043193591</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>44.76059872677051</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113175</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>53.99200144967388</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>118.4898845065117</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>115.5269768002181</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>139.1537278750042</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>145.8998232290785</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>60.51808258596473</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>94.16481274941241</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151917</v>
+        <v>255.8134085375531</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1233.603060210037</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="C2" t="n">
-        <v>864.6405432696254</v>
+        <v>1390.593246102217</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>1032.327547495467</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>646.5392948972226</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2677.500201148924</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2677.500201148924</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2677.500201148924</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2677.500201148924</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2346.437313805353</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.668658535239</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X2" t="n">
-        <v>1620.202900274159</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y2" t="n">
-        <v>1620.202900274159</v>
+        <v>1759.555763042629</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4424,10 +4424,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4467,22 +4467,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1349.56916835588</v>
+        <v>1589.347031634718</v>
       </c>
       <c r="C5" t="n">
-        <v>980.6066514154681</v>
+        <v>1220.384514694307</v>
       </c>
       <c r="D5" t="n">
-        <v>622.3409528087177</v>
+        <v>862.1188160875561</v>
       </c>
       <c r="E5" t="n">
-        <v>236.5527002104735</v>
+        <v>476.3305634893118</v>
       </c>
       <c r="F5" t="n">
-        <v>229.60719946127</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.708500331692</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="Y5" t="n">
-        <v>1349.56916835588</v>
+        <v>1975.94687169884</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4704,25 +4704,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>721.1507201626711</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="E7" t="n">
-        <v>573.2376265802779</v>
+        <v>411.2797076961342</v>
       </c>
       <c r="F7" t="n">
-        <v>426.3476790823676</v>
+        <v>264.3897601982238</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>770.969123535386</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="C8" t="n">
-        <v>402.0066065949742</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D8" t="n">
-        <v>402.0066065949742</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>402.0066065949742</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224073</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2605.005596450084</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2605.005596450084</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2605.005596450084</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2273.942709106514</v>
+        <v>2367.614128840753</v>
       </c>
       <c r="W8" t="n">
-        <v>1921.174053836399</v>
+        <v>2014.845473570639</v>
       </c>
       <c r="X8" t="n">
-        <v>1547.708295575319</v>
+        <v>1641.379715309559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1157.568963599508</v>
+        <v>1251.240383333747</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>713.4553696737762</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>544.5191867458693</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>394.4025473335336</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5007,7 +5007,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,25 +5026,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>245.130185042679</v>
+        <v>310.3166078765834</v>
       </c>
       <c r="C13" t="n">
-        <v>245.130185042679</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>1017.221394183544</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V13" t="n">
-        <v>762.5369059776569</v>
+        <v>820.5263570570741</v>
       </c>
       <c r="W13" t="n">
-        <v>473.1197359406963</v>
+        <v>531.1091870201135</v>
       </c>
       <c r="X13" t="n">
-        <v>245.130185042679</v>
+        <v>531.1091870201135</v>
       </c>
       <c r="Y13" t="n">
-        <v>245.130185042679</v>
+        <v>310.3166078765834</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5269,7 +5269,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,28 +5278,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5311,19 +5311,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5345,37 +5345,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845923</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641087</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5439,13 +5439,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>1271.749344574921</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V16" t="n">
-        <v>1017.064856369034</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W16" t="n">
-        <v>727.647686332073</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="X16" t="n">
-        <v>499.6581354340557</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.8655562905255</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="17">
@@ -5506,7 +5506,7 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5515,28 +5515,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5582,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845923</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641087</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2358.217138262064</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5676,13 +5676,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>898.50398699832</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>670.5144361003026</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,34 +5737,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643324</v>
@@ -5773,7 +5773,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1689.561836756087</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2019.42446442012</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5913,13 +5913,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,28 +5928,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X22" t="n">
         <v>97.21709146028584</v>
@@ -5968,22 +5968,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5992,7 +5992,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6010,25 +6010,25 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>563.7235867775513</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6174,19 +6174,19 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X25" t="n">
         <v>97.21709146028584</v>
@@ -6217,61 +6217,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6387,46 +6387,46 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347409</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609669</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>731.31772835508</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>441.9005583181194</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>213.9110074201021</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
         <v>97.21709146028584</v>
@@ -6442,49 +6442,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
         <v>2227.840212610279</v>
       </c>
       <c r="P30" t="n">
-        <v>2432.862693392489</v>
+        <v>2432.862693392488</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6624,13 +6624,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,16 +6639,16 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
         <v>1158.436939387592</v>
@@ -6679,46 +6679,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>816.762183007535</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,40 +6928,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7022,22 +7022,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>757.4105722479408</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>588.4743893200339</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7122,25 +7122,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247858</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U37" t="n">
-        <v>675.007103038344</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V37" t="n">
-        <v>420.3226148324571</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W37" t="n">
-        <v>420.3226148324571</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X37" t="n">
-        <v>192.3330639344398</v>
+        <v>1159.851616221711</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>939.0590370781805</v>
       </c>
     </row>
     <row r="38">
@@ -7153,10 +7153,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7168,34 +7168,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7253,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7399,19 +7399,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7438,10 +7438,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011507</v>
+        <v>1240.518888196738</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952638</v>
+        <v>985.8343999908507</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>696.41722995389</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>468.4276790558727</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
   </sheetData>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>52.49733361305164</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>52.49733361305164</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9488,22 +9488,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>32.78140656352343</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>29.47535963978146</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445214</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208057</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>93.88676507992508</v>
+        <v>104.6241510367944</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119852</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,13 +11062,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,19 +23418,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>122.7718683098709</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>30.90698584635157</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>171.3064480792182</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>241.7623996098205</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>164.5926519024209</v>
       </c>
     </row>
     <row r="20">
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>79.43092547709159</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>103.0576765518767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>82.39383318338503</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>140.3375291694989</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>88.09739043224762</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>124.4198406026824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26040,7 +26040,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338568</v>
+        <v>30.42394386102424</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>693265.1534158319</v>
+        <v>693265.1534158317</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>693265.1534158319</v>
+        <v>693265.1534158317</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>693265.1534158319</v>
+        <v>693265.1534158317</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>693265.1534158319</v>
+        <v>693265.1534158317</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>693265.1534158317</v>
+        <v>693265.1534158319</v>
       </c>
     </row>
     <row r="11">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778547</v>
@@ -26322,40 +26322,40 @@
         <v>738937.5928778547</v>
       </c>
       <c r="E2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="F2" t="n">
+        <v>703852.3075278756</v>
+      </c>
+      <c r="G2" t="n">
+        <v>703852.3075278759</v>
+      </c>
+      <c r="H2" t="n">
+        <v>703852.3075278755</v>
+      </c>
+      <c r="I2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="J2" t="n">
+        <v>703852.3075278761</v>
+      </c>
+      <c r="K2" t="n">
         <v>703852.307527876</v>
       </c>
-      <c r="F2" t="n">
-        <v>703852.3075278759</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
+        <v>703852.3075278762</v>
+      </c>
+      <c r="M2" t="n">
+        <v>703852.307527876</v>
+      </c>
+      <c r="N2" t="n">
         <v>703852.3075278758</v>
-      </c>
-      <c r="H2" t="n">
-        <v>703852.307527876</v>
-      </c>
-      <c r="I2" t="n">
-        <v>703852.3075278756</v>
-      </c>
-      <c r="J2" t="n">
-        <v>703852.3075278756</v>
-      </c>
-      <c r="K2" t="n">
-        <v>703852.3075278758</v>
-      </c>
-      <c r="L2" t="n">
-        <v>703852.3075278759</v>
-      </c>
-      <c r="M2" t="n">
-        <v>703852.3075278759</v>
-      </c>
-      <c r="N2" t="n">
-        <v>703852.3075278755</v>
       </c>
       <c r="O2" t="n">
         <v>703852.307527876</v>
       </c>
       <c r="P2" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278759</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.567329602243263e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925926</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,25 +26426,25 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
+        <v>29303.54555230228</v>
+      </c>
+      <c r="F4" t="n">
+        <v>29303.54555230231</v>
+      </c>
+      <c r="G4" t="n">
+        <v>29303.54555230231</v>
+      </c>
+      <c r="H4" t="n">
+        <v>29303.54555230231</v>
+      </c>
+      <c r="I4" t="n">
+        <v>29303.54555230231</v>
+      </c>
+      <c r="J4" t="n">
+        <v>29303.54555230238</v>
+      </c>
+      <c r="K4" t="n">
         <v>29303.54555230233</v>
-      </c>
-      <c r="F4" t="n">
-        <v>29303.54555230233</v>
-      </c>
-      <c r="G4" t="n">
-        <v>29303.54555230233</v>
-      </c>
-      <c r="H4" t="n">
-        <v>29303.54555230233</v>
-      </c>
-      <c r="I4" t="n">
-        <v>29303.54555230233</v>
-      </c>
-      <c r="J4" t="n">
-        <v>29303.54555230231</v>
-      </c>
-      <c r="K4" t="n">
-        <v>29303.54555230231</v>
       </c>
       <c r="L4" t="n">
         <v>29303.54555230233</v>
@@ -26459,7 +26459,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26478,37 +26478,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-108380.1417219254</v>
+        <v>-108380.1417219253</v>
       </c>
       <c r="C6" t="n">
         <v>481587.7374926191</v>
@@ -26530,40 +26530,40 @@
         <v>481587.7374926191</v>
       </c>
       <c r="E6" t="n">
-        <v>56426.80829023926</v>
+        <v>57303.94042398818</v>
       </c>
       <c r="F6" t="n">
-        <v>581586.8447671352</v>
+        <v>582463.9769008846</v>
       </c>
       <c r="G6" t="n">
-        <v>581586.8447671351</v>
+        <v>582463.9769008849</v>
       </c>
       <c r="H6" t="n">
-        <v>581586.8447671353</v>
+        <v>582463.9769008845</v>
       </c>
       <c r="I6" t="n">
-        <v>581586.8447671349</v>
+        <v>582463.9769008848</v>
       </c>
       <c r="J6" t="n">
-        <v>405163.625574542</v>
+        <v>406040.7577082924</v>
       </c>
       <c r="K6" t="n">
-        <v>581586.8447671352</v>
+        <v>582463.9769008849</v>
       </c>
       <c r="L6" t="n">
-        <v>581586.8447671355</v>
+        <v>582463.9769008851</v>
       </c>
       <c r="M6" t="n">
-        <v>446785.829533298</v>
+        <v>447662.9616670475</v>
       </c>
       <c r="N6" t="n">
-        <v>581586.8447671349</v>
+        <v>582463.9769008846</v>
       </c>
       <c r="O6" t="n">
-        <v>581586.8447671353</v>
+        <v>582463.9769008849</v>
       </c>
       <c r="P6" t="n">
-        <v>581586.8447671353</v>
+        <v>582463.9769008849</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,13 +26980,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>385.9211820612781</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>35.02600160420596</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27435,7 +27435,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>75.30176537689273</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>2.496509910248562</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>391.8079108011598</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>141.7069916148868</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>93.93311345730839</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>137.6720557613266</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,7 +27912,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.512645914440668</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>165.3051017946059</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866331</v>
       </c>
     </row>
     <row r="11">
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-5.780283390417846e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -29337,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,10 +33174,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,37 +33186,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33292,7 +33292,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,10 +35260,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541599</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541599</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.0367344586612</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>315.1451088046317</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>278.7330645958059</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523304</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>181.8997978649993</v>
+        <v>192.6371838218685</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,16 +37308,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,25 +37390,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
